--- a/biology/Médecine/Lewis_Hastings_Sarett/Lewis_Hastings_Sarett.xlsx
+++ b/biology/Médecine/Lewis_Hastings_Sarett/Lewis_Hastings_Sarett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lewis Hastings Sarett (22 décembre 1917 - 29 novembre 1999) était un organicien américain. Il a synthétisé la cortisone lorsqu'il travaillait chez Merck &amp; Co.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né à Champaign, en Illinois. Son père était Lew Sarett, un poète et professeur juif réputé[1], et l'oncle de l'ancien secrétaire à la Défense, Donald Rumsfeld[2]. Il a vécu à Laona (Wisconsin), pendant son enfance, puis il a été au lycée à Highland Park, dans l'Illinois. Il a obtenu une licence de sciences à l'université Northwestern en 1939 (Phi Beta Kappa), puis il a eu son doctorat à l'université de Princeton.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né à Champaign, en Illinois. Son père était Lew Sarett, un poète et professeur juif réputé, et l'oncle de l'ancien secrétaire à la Défense, Donald Rumsfeld. Il a vécu à Laona (Wisconsin), pendant son enfance, puis il a été au lycée à Highland Park, dans l'Illinois. Il a obtenu une licence de sciences à l'université Northwestern en 1939 (Phi Beta Kappa), puis il a eu son doctorat à l'université de Princeton.
 Il a travaillé pour Merck &amp; Co pendant 38 ans avant de prendre sa retraite en 1982. Il a inventé un procédé afin de synthétiser un composé prégnène tel que la cortisone, ayant le numéro de brevet suivant : 2,462,133.
 Il a donné son nom à la réaction d'oxydation d'un alcool en une cétone, ou en aldéhyde, à l'aide de trioxyde de chrome et de pyridine : l'oxydation de Sarett. Les alcools primaires seront oxydés en aldéhydes et non pas en acides carboxyliques.
 </t>
@@ -544,10 +558,12 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1964 : Scheele Award
-1972 : Chemical Pioneer Award de l'American Institute of Chemists [3]
+1972 : Chemical Pioneer Award de l'American Institute of Chemists 
 1975 : National Medal of Science
 1976 : médaille Perkin
 1980 : intégré au National Inventors Hall of Fame
